--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -8239,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8828,7 +8828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1:K25"/>
     </sheetView>

--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -8240,7 +8240,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -8237,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,40 +8361,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A22" r:id="rId2"/>
+    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="386">
   <si>
     <t>Section 1 - Configure and Administer vSphere 6.x Security</t>
   </si>
@@ -391,54 +391,26 @@
   </si>
   <si>
     <r>
-      <t>¨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Harden ESXi hosts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
       <t>o</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enable/Configure/Disable services in the ESXi firewall</t>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change default account access</t>
     </r>
   </si>
   <si>
@@ -462,7 +434,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Change default account access</t>
+      <t>Add an ESXi Host to a directory service</t>
     </r>
   </si>
   <si>
@@ -486,7 +458,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Add an ESXi Host to a directory service</t>
+      <t>Apply permissions to ESXi Hosts using Host Profiles</t>
     </r>
   </si>
   <si>
@@ -510,7 +482,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Apply permissions to ESXi Hosts using Host Profiles</t>
+      <t>Enable Lockdown Mode</t>
     </r>
   </si>
   <si>
@@ -534,7 +506,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enable Lockdown Mode</t>
+      <t>Control access to hosts (DCUI/Shell/SSH/MOB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harden vCenter Server</t>
     </r>
   </si>
   <si>
@@ -558,31 +554,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Control access to hosts (DCUI/Shell/SSH/MOB)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>¨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Harden vCenter Server</t>
+      <t>Control datastore browser access</t>
     </r>
   </si>
   <si>
@@ -606,7 +578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Control datastore browser access</t>
+      <t>Create/Manage vCenter Server Security Certificates</t>
     </r>
   </si>
   <si>
@@ -630,7 +602,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Create/Manage vCenter Server Security Certificates</t>
+      <t>Control MOB access</t>
     </r>
   </si>
   <si>
@@ -654,55 +626,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Control MOB access</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Restrict administrative privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>¨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Understand the implications of securing a vSphere environment</t>
     </r>
   </si>
   <si>
@@ -7704,12 +7628,84 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable/Configure/Disable services in the ESXi firewall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harden ESXi hosts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Understand the implications of securing a vSphere environment</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7749,12 +7745,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -7856,10 +7846,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -7870,10 +7860,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7882,29 +7872,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -7918,8 +7908,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="11"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8239,7 +8232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8251,15 +8244,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8267,13 +8260,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="21">
-        <f>AVERAGE('Section 1'!B3,'Section 1'!B16,'Section 1'!B33,'Section 1'!B46)</f>
+        <f>AVERAGE('Section 1'!B3,'Section 1'!B16,'Section 1'!B34,'Section 1'!B47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="21">
         <f>AVERAGE('Section 2'!B3,'Section 2'!B27)/3</f>
@@ -8282,7 +8275,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="21">
         <f>AVERAGE('Section 3'!B3,'Section 3'!B17,'Section 3'!B36,'Section 3'!B58,'Section 3'!B78)</f>
@@ -8291,7 +8284,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="21">
         <f>AVERAGE('Section 4'!B3,'Section 4'!B19,'Section 4'!B27)</f>
@@ -8300,7 +8293,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="21">
         <f>AVERAGE('Section 5'!B3,'Section 5'!B12)</f>
@@ -8309,7 +8302,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="21">
         <f>AVERAGE('Section 6'!B3,'Section 6'!B7,'Section 6'!B16)</f>
@@ -8318,7 +8311,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="21">
         <f>AVERAGE('Section 7'!B3,'Section 7'!B24,'Section 7'!B37,'Section 7'!B45,'Section 7'!B58)</f>
@@ -8327,7 +8320,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="21">
         <f>AVERAGE('Section 8'!B3,'Section 8'!B10)</f>
@@ -8336,7 +8329,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="21">
         <f>AVERAGE('Section 9'!B3,'Section 9'!B14)</f>
@@ -8345,7 +8338,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="21">
         <f>AVERAGE('Section 10'!B3,'Section 10'!B11,'Section 10'!B23)</f>
@@ -8354,7 +8347,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B15" s="23">
         <f>AVERAGE(B4:B13)</f>
@@ -8367,32 +8360,32 @@
     </row>
     <row r="17" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8420,32 +8413,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B12),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8453,7 +8446,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8461,7 +8454,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8469,7 +8462,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8477,7 +8470,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8485,7 +8478,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8493,7 +8486,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8501,7 +8494,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8509,7 +8502,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8517,24 +8510,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="19">
         <f>ROUNDDOWN(AVERAGE(B15:B16),1)</f>
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8542,7 +8535,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8574,32 +8567,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B9),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8607,7 +8600,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8615,7 +8608,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8623,7 +8616,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8631,7 +8624,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8639,7 +8632,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8647,24 +8640,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B11" s="19">
         <f>ROUNDDOWN(AVERAGE(B12:B19),1)</f>
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8672,7 +8665,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8680,7 +8673,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8688,7 +8681,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8696,7 +8689,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8704,7 +8697,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8712,7 +8705,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8720,7 +8713,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8731,32 +8724,32 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B23" s="19">
         <f>ROUNDDOWN(AVERAGE(B24:B31),1)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8764,7 +8757,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8772,7 +8765,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8780,7 +8773,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8788,7 +8781,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8796,7 +8789,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8804,7 +8797,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8812,7 +8805,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8844,7 +8837,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10">
         <v>1.1000000000000001</v>
@@ -8939,70 +8932,70 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
@@ -9016,70 +9009,70 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
@@ -9093,70 +9086,70 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -9170,70 +9163,70 @@
     </row>
     <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
@@ -9247,70 +9240,70 @@
     </row>
     <row r="6" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -9324,70 +9317,70 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -9401,70 +9394,70 @@
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -9478,70 +9471,70 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
@@ -9555,70 +9548,70 @@
     </row>
     <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -9632,70 +9625,70 @@
     </row>
     <row r="11" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -9709,70 +9702,70 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -9786,70 +9779,70 @@
     </row>
     <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -9863,70 +9856,70 @@
     </row>
     <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -9940,70 +9933,70 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -10017,70 +10010,70 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -10094,7 +10087,7 @@
     </row>
     <row r="17" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -10118,36 +10111,36 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -10171,36 +10164,36 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -10224,36 +10217,36 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -10277,36 +10270,36 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10330,36 +10323,36 @@
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10383,36 +10376,36 @@
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10436,36 +10429,36 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10489,36 +10482,36 @@
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE24" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -10542,31 +10535,31 @@
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE25" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -10602,11 +10595,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10623,10 +10616,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10638,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10738,11 +10731,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="8">
-        <f>ROUNDDOWN(AVERAGE(B17:B31),1)</f>
+        <f>ROUNDDOWN(AVERAGE(B17:B32),1)</f>
         <v>0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10763,135 +10756,135 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8">
-        <f>ROUNDDOWN(AVERAGE(B34:B44),1)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B34" s="8">
-        <v>0</v>
+        <f>ROUNDDOWN(AVERAGE(B35:B45),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="8">
         <v>0</v>
@@ -10899,7 +10892,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" s="8">
         <v>0</v>
@@ -10907,7 +10900,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8">
         <v>0</v>
@@ -10915,7 +10908,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="8">
         <v>0</v>
@@ -10923,7 +10916,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B39" s="8">
         <v>0</v>
@@ -10931,7 +10924,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B40" s="8">
         <v>0</v>
@@ -10939,7 +10932,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B41" s="8">
         <v>0</v>
@@ -10947,7 +10940,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42" s="8">
         <v>0</v>
@@ -10955,7 +10948,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B43" s="8">
         <v>0</v>
@@ -10963,39 +10956,39 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="8">
-        <f>ROUNDDOWN(AVERAGE(B47:B57),1)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>373</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>41</v>
+      <c r="A47" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B47" s="8">
-        <v>0</v>
+        <f>ROUNDDOWN(AVERAGE(B48:B58),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B48" s="8">
         <v>0</v>
@@ -11003,15 +10996,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B49" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>43</v>
+      <c r="A50" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B50" s="8">
         <v>0</v>
@@ -11019,7 +11012,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B51" s="8">
         <v>0</v>
@@ -11027,23 +11020,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>46</v>
+      <c r="A53" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B53" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>47</v>
+      <c r="A54" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B54" s="8">
         <v>0</v>
@@ -11051,7 +11044,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8">
         <v>0</v>
@@ -11059,28 +11052,36 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>50</v>
+      <c r="A57" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B57" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C16" location="Ref1.2" display="Link"/>
     <hyperlink ref="C3" location="Ref1.1" display="Link"/>
-    <hyperlink ref="C33" location="Ref1.3" display="Link"/>
+    <hyperlink ref="C34" location="Ref1.3" display="Link"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11103,32 +11104,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8">
         <f>ROUNDDOWN(AVERAGE(B4:B25),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11136,7 +11137,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11144,7 +11145,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11152,7 +11153,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11160,7 +11161,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11168,7 +11169,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11176,7 +11177,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11184,7 +11185,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11192,7 +11193,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11200,7 +11201,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11208,7 +11209,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11216,7 +11217,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11224,7 +11225,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11232,7 +11233,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11240,7 +11241,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11248,7 +11249,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11256,7 +11257,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11264,7 +11265,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11272,7 +11273,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11280,7 +11281,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11288,7 +11289,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11296,7 +11297,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11304,24 +11305,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8">
         <f>ROUNDDOWN(AVERAGE(B28:B34),1)</f>
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11329,7 +11330,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11337,7 +11338,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11345,7 +11346,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11353,7 +11354,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11361,7 +11362,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11369,7 +11370,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11400,32 +11401,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8">
         <f>ROUNDDOWN(AVERAGE(B4:B15),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11433,7 +11434,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11441,7 +11442,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11449,7 +11450,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11457,7 +11458,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11465,7 +11466,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11473,7 +11474,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11481,7 +11482,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11489,7 +11490,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11497,7 +11498,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11505,7 +11506,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11513,7 +11514,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11521,24 +11522,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="8">
         <f>ROUNDDOWN(AVERAGE(B18:B34),1)</f>
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11546,7 +11547,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11554,7 +11555,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11562,7 +11563,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11570,7 +11571,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11578,7 +11579,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11586,7 +11587,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11594,7 +11595,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11602,7 +11603,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11610,7 +11611,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11618,7 +11619,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11626,7 +11627,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11634,7 +11635,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11642,7 +11643,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11650,7 +11651,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11658,7 +11659,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11666,7 +11667,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11674,24 +11675,24 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="8">
         <f>ROUNDDOWN(AVERAGE(B37:B56),1)</f>
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11699,7 +11700,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11707,7 +11708,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11715,7 +11716,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11723,7 +11724,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11731,7 +11732,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11739,7 +11740,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11747,7 +11748,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11755,7 +11756,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11763,7 +11764,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11771,7 +11772,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11779,7 +11780,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11787,7 +11788,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11795,7 +11796,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11803,7 +11804,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11811,7 +11812,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11819,7 +11820,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11827,7 +11828,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11835,7 +11836,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -11843,7 +11844,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11851,24 +11852,24 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" s="19">
         <f>ROUNDDOWN(AVERAGE(B59:B76),1)</f>
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" s="20">
         <v>0</v>
@@ -11876,7 +11877,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="20">
         <v>0</v>
@@ -11884,7 +11885,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="20">
         <v>0</v>
@@ -11892,7 +11893,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="20">
         <v>0</v>
@@ -11900,7 +11901,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B63" s="20">
         <v>0</v>
@@ -11908,7 +11909,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B64" s="20">
         <v>0</v>
@@ -11916,7 +11917,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B65" s="20">
         <v>0</v>
@@ -11924,7 +11925,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B66" s="20">
         <v>0</v>
@@ -11932,7 +11933,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" s="20">
         <v>0</v>
@@ -11940,7 +11941,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" s="20">
         <v>0</v>
@@ -11948,7 +11949,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B69" s="20">
         <v>0</v>
@@ -11956,7 +11957,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B70" s="20">
         <v>0</v>
@@ -11964,7 +11965,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="20">
         <v>0</v>
@@ -11972,7 +11973,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B72" s="20">
         <v>0</v>
@@ -11980,7 +11981,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73" s="20">
         <v>0</v>
@@ -11988,7 +11989,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="20">
         <v>0</v>
@@ -11996,7 +11997,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="20">
         <v>0</v>
@@ -12004,7 +12005,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" s="20">
         <v>0</v>
@@ -12012,24 +12013,24 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" s="19">
         <f>ROUNDDOWN(AVERAGE(B79:B86),1)</f>
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -12037,7 +12038,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -12045,7 +12046,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -12053,7 +12054,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -12061,7 +12062,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -12069,7 +12070,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -12077,7 +12078,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -12085,7 +12086,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -12121,32 +12122,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B17),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12154,7 +12155,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12162,7 +12163,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12170,7 +12171,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12178,7 +12179,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12186,7 +12187,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12194,7 +12195,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12202,7 +12203,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12210,7 +12211,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12218,7 +12219,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12226,7 +12227,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12234,7 +12235,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12242,7 +12243,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12250,7 +12251,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12258,24 +12259,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" s="19">
         <f>ROUNDDOWN(AVERAGE(B20:B25),1)</f>
         <v>0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12283,7 +12284,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12291,7 +12292,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12299,7 +12300,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12307,7 +12308,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12315,7 +12316,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12323,24 +12324,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B27" s="19">
         <f>ROUNDDOWN(AVERAGE(B28:B29),1)</f>
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12348,7 +12349,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12381,32 +12382,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B10),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12414,7 +12415,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12422,7 +12423,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12430,7 +12431,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12438,7 +12439,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12446,7 +12447,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12454,7 +12455,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12462,24 +12463,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="19">
         <f>ROUNDDOWN(AVERAGE(B13:B20),1)</f>
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12487,7 +12488,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12495,7 +12496,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12503,7 +12504,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12511,7 +12512,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12519,7 +12520,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12527,7 +12528,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12535,7 +12536,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12567,32 +12568,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B5),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12600,7 +12601,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12608,24 +12609,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="19">
         <f>ROUNDDOWN(AVERAGE(B8:B14),1)</f>
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12633,7 +12634,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12641,7 +12642,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12649,7 +12650,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12657,7 +12658,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12665,7 +12666,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12673,7 +12674,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12681,24 +12682,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="19">
         <f>ROUNDDOWN(AVERAGE(B17:B25),1)</f>
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12706,7 +12707,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12714,7 +12715,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12722,7 +12723,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12730,7 +12731,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12738,7 +12739,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12746,7 +12747,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12754,7 +12755,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12762,7 +12763,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12795,32 +12796,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B22),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12828,7 +12829,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12836,7 +12837,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12844,7 +12845,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12852,7 +12853,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12860,7 +12861,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12868,7 +12869,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12876,7 +12877,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12884,7 +12885,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12892,7 +12893,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12900,7 +12901,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12908,7 +12909,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12916,7 +12917,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12924,7 +12925,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12932,7 +12933,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12940,7 +12941,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12948,7 +12949,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12956,7 +12957,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12964,7 +12965,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12972,24 +12973,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" s="19">
         <f>ROUNDDOWN(AVERAGE(B25:B35),1)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12997,7 +12998,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -13005,7 +13006,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -13013,7 +13014,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -13021,7 +13022,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -13029,7 +13030,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -13037,7 +13038,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -13045,7 +13046,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -13053,7 +13054,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -13061,7 +13062,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -13069,7 +13070,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -13077,24 +13078,24 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B37" s="19">
         <f>ROUNDDOWN(AVERAGE(B38:B42),1)</f>
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -13102,7 +13103,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -13110,7 +13111,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -13118,7 +13119,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -13126,7 +13127,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -13134,24 +13135,24 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B44" s="19">
         <f>ROUNDDOWN(AVERAGE(B45:B56),1)</f>
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -13159,7 +13160,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -13167,7 +13168,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -13175,7 +13176,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -13183,7 +13184,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -13191,7 +13192,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13199,7 +13200,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13207,7 +13208,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13215,7 +13216,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13223,7 +13224,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13231,7 +13232,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -13239,7 +13240,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -13247,27 +13248,27 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B58" s="19">
         <f>ROUNDDOWN(AVERAGE(B59:B66),1)</f>
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -13275,7 +13276,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -13283,7 +13284,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -13291,7 +13292,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -13299,7 +13300,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -13307,7 +13308,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -13315,7 +13316,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -13323,7 +13324,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -13358,32 +13359,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B3" s="19">
         <f>ROUNDDOWN(AVERAGE(B4:B8),1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13391,7 +13392,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -13399,7 +13400,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -13407,7 +13408,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13415,7 +13416,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -13423,24 +13424,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B10" s="19">
         <f>ROUNDDOWN(AVERAGE(B11:B18),1)</f>
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13448,7 +13449,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -13456,7 +13457,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -13464,7 +13465,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -13472,7 +13473,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13480,7 +13481,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13488,7 +13489,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13496,7 +13497,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18">
         <v>0</v>

--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -8554,7 +8554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10597,9 +10597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10758,9 +10758,7 @@
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -10814,9 +10812,7 @@
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -11006,9 +11002,7 @@
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -11038,9 +11032,7 @@
       <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="8">
-        <v>0</v>
-      </c>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -11092,7 +11084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -11389,8 +11381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11733,9 +11725,6 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -12783,8 +12772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12887,9 +12876,6 @@
       <c r="A12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -13040,9 +13026,6 @@
       <c r="A31" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -13186,9 +13169,6 @@
       <c r="A49" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -13269,9 +13249,6 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">

--- a/VCP6.5 DCV Study Tracker.xlsx
+++ b/VCP6.5 DCV Study Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9945" tabRatio="674"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -8232,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,8 +8407,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -8554,15 +8555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10604,9 +10605,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11084,14 +11085,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11387,8 +11389,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12104,9 +12107,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12364,9 +12367,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12550,9 +12553,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12773,14 +12776,14 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13324,14 +13327,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
